--- a/plots/basic_stats/two_var_stats/allmus_size_vs_region_name.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_region_name.xlsx
@@ -439,40 +439,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="I2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="M2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -485,25 +485,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>68</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>101</v>
@@ -512,13 +512,13 @@
         <v>141</v>
       </c>
       <c r="L3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4">
         <v>88</v>
@@ -564,7 +564,7 @@
         <v>45</v>
       </c>
       <c r="N4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -623,40 +623,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
       <c r="I6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>29</v>
+      </c>
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
       <c r="N6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
